--- a/NiemYet/BangThongTin.xlsx
+++ b/NiemYet/BangThongTin.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\thuctd.github.io\NiemYet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1467B72-FF1B-428D-8114-B44F97DDE582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1385DB0-26DD-4B40-9498-2A78662F5418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="4" r:id="rId1"/>
     <sheet name="IN" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR!$A$1:$F$92</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -367,6 +367,27 @@
   </si>
   <si>
     <t>https://thuctd.github.io/NiemYet/12-LichNgungGiam/LichNgungCapDien.pdf</t>
+  </si>
+  <si>
+    <t>https://thuctd.github.io/NiemYet/10-ThuTucCapDien/250601-SPC-QD-94-Quy%20%C4%91%E1%BB%8Bnh%20cung%20c%E1%BA%A5p%20c%C3%A1c%20d%E1%BB%8Bch%20v%E1%BB%A5%20%C4%91i%E1%BB%87n.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quy định cung cấp các dịch vụ điện áp dụng trong Tổng công ty Điện lực miền Nam</t>
+  </si>
+  <si>
+    <t>https://thuctd.github.io\NiemYet\08-LichGhiChiSo/LichGhiChiSo.xlsx</t>
+  </si>
+  <si>
+    <t>LỊCH GHI CHỈ SỐ ĐIỆN</t>
+  </si>
+  <si>
+    <t>https://thuctd.github.io/NiemYet/01-Bo-Nganh-Luat/240703-TTg-586-QD%20ph%C3%AA%20duy%E1%BB%87t%20Quy%20ho%E1%BA%A1ch%20t%E1%BB%89nh%20%C4%90%E1%BB%93ng%20Nai%20th%E1%BB%9Di%20k%E1%BB%B3%202021-2030%20t%E1%BA%A7m%20nh%C3%ACn%20%C4%91%E1%BA%BFn%20n%C4%83m%202050.pdf</t>
+  </si>
+  <si>
+    <t>Phê duyệt Quy hoạch tỉnh Đồng Nai thời kỳ 2021-2030, tầm nhìn đến năm 2050</t>
+  </si>
+  <si>
+    <t>https://thuvienphapluat.vn/van-ban/Xay-dung-Do-thi/Quyet-dinh-586-QD-TTg-2024-phe-duyet-Quy-hoach-tinh-Dong-Nai-thoi-ky-2021-2030-616039.aspx</t>
   </si>
 </sst>
 </file>
@@ -441,7 +462,7 @@
     </font>
     <font>
       <b/>
-      <sz val="48"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -534,9 +555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,14 +577,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1025,16 +1046,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0932BB-2243-4135-B59E-E019F997D3A6}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="66.19921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="49.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64" style="21" customWidth="1"/>
+    <col min="6" max="6" width="37.59765625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1050,7 +1071,7 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1092,7 +1113,7 @@
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1113,7 +1134,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -1134,7 +1155,7 @@
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -1155,7 +1176,7 @@
       <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1176,7 +1197,7 @@
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -1197,7 +1218,7 @@
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1218,7 +1239,7 @@
       <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1239,7 +1260,7 @@
       <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1260,7 +1281,7 @@
       <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1281,7 +1302,7 @@
       <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1302,7 +1323,7 @@
       <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1323,7 +1344,7 @@
       <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -1344,7 +1365,7 @@
       <c r="D15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1365,7 +1386,7 @@
       <c r="D16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1386,7 +1407,7 @@
       <c r="D17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1407,7 +1428,7 @@
       <c r="D18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="21" t="s">
         <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -1428,7 +1449,7 @@
       <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="21" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -1449,7 +1470,7 @@
       <c r="D20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="21" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1467,7 +1488,7 @@
       <c r="D21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="21" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1485,7 +1506,7 @@
       <c r="D22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="21" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1503,7 +1524,7 @@
       <c r="D23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1521,7 +1542,7 @@
       <c r="D24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="21" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1539,7 +1560,7 @@
       <c r="D25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="21" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1557,7 +1578,7 @@
       <c r="D26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1575,7 +1596,7 @@
       <c r="D27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="21" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1593,14 +1614,26 @@
       <c r="D28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1608,11 +1641,38 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="B30" s="2">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2001,6 +2061,7 @@
     <hyperlink ref="F14" r:id="rId7" xr:uid="{3E9356BC-E8E5-43ED-8D12-F79814B677B6}"/>
     <hyperlink ref="E16" r:id="rId8" xr:uid="{55E23239-AC9B-4192-A64E-7F82272E4B67}"/>
     <hyperlink ref="E26" r:id="rId9" xr:uid="{923A95A7-7FF5-4421-BF47-AE7C6778781F}"/>
+    <hyperlink ref="F31" r:id="rId10" xr:uid="{13F6D579-EDEA-4807-AA3D-3395CE5B67DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2013,8 +2074,8 @@
   </sheetPr>
   <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2029,65 +2090,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="str">
         <f>VLOOKUP(F2,QR!A:F,5,0)</f>
-        <v>https://thuctd.github.io/NiemYet/12-LichNgungGiam/LichNgungCapDien.pdf</v>
+        <v>https://thuctd.github.io/NiemYet/01-Bo-Nganh-Luat/240703-TTg-586-QD%20ph%C3%AA%20duy%E1%BB%87t%20Quy%20ho%E1%BA%A1ch%20t%E1%BB%89nh%20%C4%90%E1%BB%93ng%20Nai%20th%E1%BB%9Di%20k%E1%BB%B3%202021-2030%20t%E1%BA%A7m%20nh%C3%ACn%20%C4%91%E1%BA%BFn%20n%C4%83m%202050.pdf</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F2" s="21">
-        <v>27</v>
+      <c r="F2" s="22">
+        <v>30</v>
       </c>
       <c r="G2" s="11" t="str">
         <f>"https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data="&amp;G1</f>
-        <v>https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data=https://thuctd.github.io/NiemYet/12-LichNgungGiam/LichNgungCapDien.pdf</v>
+        <v>https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data=https://thuctd.github.io/NiemYet/01-Bo-Nganh-Luat/240703-TTg-586-QD%20ph%C3%AA%20duy%E1%BB%87t%20Quy%20ho%E1%BA%A1ch%20t%E1%BB%89nh%20%C4%90%E1%BB%93ng%20Nai%20th%E1%BB%9Di%20k%E1%BB%B3%202021-2030%20t%E1%BA%A7m%20nh%C3%ACn%20%C4%91%E1%BA%BFn%20n%C4%83m%202050.pdf</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="2:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="2:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="2:7" ht="162.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="e" vm="1">
+      <c r="B6" s="13" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="176.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="str">
+      <c r="B7" s="20" t="str">
         <f>UPPER(VLOOKUP(F2,QR!A:D,4,0))</f>
-        <v>LỊCH NGỪNG GIẢM CUNG CẤP ĐIỆN</v>
+        <v>PHÊ DUYỆT QUY HOẠCH TỈNH ĐỒNG NAI THỜI KỲ 2021-2030, TẦM NHÌN ĐẾN NĂM 2050</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="204" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="e" vm="2">
+      <c r="B8" s="18" t="e" vm="2">
         <f>_xlfn.IMAGE(G2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="2:7" ht="76.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2107,7 +2168,7 @@
   <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2117,14 +2178,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="2:7" s="3" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">

--- a/NiemYet/BangThongTin.xlsx
+++ b/NiemYet/BangThongTin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\thuctd.github.io\NiemYet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1385DB0-26DD-4B40-9498-2A78662F5418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4894FB41-8348-4BE3-A796-CB7830F608C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,14 +1046,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0932BB-2243-4135-B59E-E019F997D3A6}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="66.19921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="63.19921875" style="5" customWidth="1"/>
     <col min="5" max="5" width="64" style="21" customWidth="1"/>
     <col min="6" max="6" width="37.59765625" style="6" customWidth="1"/>
   </cols>
@@ -2075,7 +2075,7 @@
   <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2095,16 +2095,16 @@
       </c>
       <c r="G1" t="str">
         <f>VLOOKUP(F2,QR!A:F,5,0)</f>
-        <v>https://thuctd.github.io/NiemYet/01-Bo-Nganh-Luat/240703-TTg-586-QD%20ph%C3%AA%20duy%E1%BB%87t%20Quy%20ho%E1%BA%A1ch%20t%E1%BB%89nh%20%C4%90%E1%BB%93ng%20Nai%20th%E1%BB%9Di%20k%E1%BB%B3%202021-2030%20t%E1%BA%A7m%20nh%C3%ACn%20%C4%91%E1%BA%BFn%20n%C4%83m%202050.pdf</v>
+        <v>https://thuctd.github.io/NiemYet/12-LichNgungGiam/LichNgungCapDien.pdf</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F2" s="22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="11" t="str">
         <f>"https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data="&amp;G1</f>
-        <v>https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data=https://thuctd.github.io/NiemYet/01-Bo-Nganh-Luat/240703-TTg-586-QD%20ph%C3%AA%20duy%E1%BB%87t%20Quy%20ho%E1%BA%A1ch%20t%E1%BB%89nh%20%C4%90%E1%BB%93ng%20Nai%20th%E1%BB%9Di%20k%E1%BB%B3%202021-2030%20t%E1%BA%A7m%20nh%C3%ACn%20%C4%91%E1%BA%BFn%20n%C4%83m%202050.pdf</v>
+        <v>https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data=https://thuctd.github.io/NiemYet/12-LichNgungGiam/LichNgungCapDien.pdf</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2130,7 +2130,7 @@
     <row r="7" spans="2:7" ht="176.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="str">
         <f>UPPER(VLOOKUP(F2,QR!A:D,4,0))</f>
-        <v>PHÊ DUYỆT QUY HOẠCH TỈNH ĐỒNG NAI THỜI KỲ 2021-2030, TẦM NHÌN ĐẾN NĂM 2050</v>
+        <v>LỊCH NGỪNG GIẢM CUNG CẤP ĐIỆN</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="204" customHeight="1" x14ac:dyDescent="0.25">

--- a/NiemYet/BangThongTin.xlsx
+++ b/NiemYet/BangThongTin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\thuctd.github.io\NiemYet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4894FB41-8348-4BE3-A796-CB7830F608C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB141BDB-C987-4F15-9972-FE7C9B51D6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>https://thuvienphapluat.vn/van-ban/Xay-dung-Do-thi/Quyet-dinh-586-QD-TTg-2024-phe-duyet-Quy-hoach-tinh-Dong-Nai-thoi-ky-2021-2030-616039.aspx</t>
+  </si>
+  <si>
+    <t>triển khai quy trình, thủ tục cấp điện cho khách hàng mua điện mục đích sinh hoạt</t>
+  </si>
+  <si>
+    <t>https://thuctd.github.io\NiemYet\10-ThuTucCapDien\251013-SCT-3000-trien khai quy trinh mua ban điện sinh hoat cua Cty Dien luc DN.pdf</t>
   </si>
 </sst>
 </file>
@@ -740,7 +746,6 @@
 <webImagesSrd xmlns="http://schemas.microsoft.com/office/spreadsheetml/2020/richdatawebimage" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <webImageSrd>
     <address r:id="rId1"/>
-    <blip r:id="rId2"/>
   </webImageSrd>
 </webImagesSrd>
 </file>
@@ -752,7 +757,7 @@
     <v>5</v>
   </rv>
   <rv s="1">
-    <v>0</v>
+    <v>-1</v>
     <v>1</v>
     <v>0</v>
     <v>0</v>
@@ -1046,9 +1051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0932BB-2243-4135-B59E-E019F997D3A6}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1679,6 +1684,18 @@
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2062,6 +2079,7 @@
     <hyperlink ref="E16" r:id="rId8" xr:uid="{55E23239-AC9B-4192-A64E-7F82272E4B67}"/>
     <hyperlink ref="E26" r:id="rId9" xr:uid="{923A95A7-7FF5-4421-BF47-AE7C6778781F}"/>
     <hyperlink ref="F31" r:id="rId10" xr:uid="{13F6D579-EDEA-4807-AA3D-3395CE5B67DB}"/>
+    <hyperlink ref="E32" r:id="rId11" xr:uid="{332FF64F-AA28-4825-ABD6-FF16A79B1A31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2074,8 +2092,8 @@
   </sheetPr>
   <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2095,16 +2113,16 @@
       </c>
       <c r="G1" t="str">
         <f>VLOOKUP(F2,QR!A:F,5,0)</f>
-        <v>https://thuctd.github.io/NiemYet/12-LichNgungGiam/LichNgungCapDien.pdf</v>
+        <v>https://thuctd.github.io\NiemYet\10-ThuTucCapDien\251013-SCT-3000-trien khai quy trinh mua ban điện sinh hoat cua Cty Dien luc DN.pdf</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F2" s="22">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G2" s="11" t="str">
         <f>"https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data="&amp;G1</f>
-        <v>https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data=https://thuctd.github.io/NiemYet/12-LichNgungGiam/LichNgungCapDien.pdf</v>
+        <v>https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data=https://thuctd.github.io\NiemYet\10-ThuTucCapDien\251013-SCT-3000-trien khai quy trinh mua ban điện sinh hoat cua Cty Dien luc DN.pdf</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2130,7 +2148,7 @@
     <row r="7" spans="2:7" ht="176.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="str">
         <f>UPPER(VLOOKUP(F2,QR!A:D,4,0))</f>
-        <v>LỊCH NGỪNG GIẢM CUNG CẤP ĐIỆN</v>
+        <v>TRIỂN KHAI QUY TRÌNH, THỦ TỤC CẤP ĐIỆN CHO KHÁCH HÀNG MUA ĐIỆN MỤC ĐÍCH SINH HOẠT</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="204" customHeight="1" x14ac:dyDescent="0.25">

--- a/NiemYet/BangThongTin.xlsx
+++ b/NiemYet/BangThongTin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\thuctd.github.io\NiemYet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB141BDB-C987-4F15-9972-FE7C9B51D6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CCF523-2AEA-4A5C-8BF3-8D8522475612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>https://thuctd.github.io\NiemYet\10-ThuTucCapDien\251013-SCT-3000-trien khai quy trinh mua ban điện sinh hoat cua Cty Dien luc DN.pdf</t>
+  </si>
+  <si>
+    <t>https://thuctd.github.io\NiemYet\01-Bo-Nganh-Luat\Thông tư số 60-2025-TT-BCT ngày 0212-2025 Giá Bán Điện.pdf</t>
+  </si>
+  <si>
+    <t>Thông tư số 60/2025/TT-BCT ngày 02/12/2025 Bộ Công Thương Quy định về thực hiện giá bán điện.</t>
   </si>
 </sst>
 </file>
@@ -1051,9 +1057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0932BB-2243-4135-B59E-E019F997D3A6}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1698,97 +1704,109 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2080,6 +2098,7 @@
     <hyperlink ref="E26" r:id="rId9" xr:uid="{923A95A7-7FF5-4421-BF47-AE7C6778781F}"/>
     <hyperlink ref="F31" r:id="rId10" xr:uid="{13F6D579-EDEA-4807-AA3D-3395CE5B67DB}"/>
     <hyperlink ref="E32" r:id="rId11" xr:uid="{332FF64F-AA28-4825-ABD6-FF16A79B1A31}"/>
+    <hyperlink ref="E33" r:id="rId12" xr:uid="{10EBA9A8-AA5A-4AAF-AA0D-D73061618A1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2092,8 +2111,8 @@
   </sheetPr>
   <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2113,16 +2132,16 @@
       </c>
       <c r="G1" t="str">
         <f>VLOOKUP(F2,QR!A:F,5,0)</f>
-        <v>https://thuctd.github.io\NiemYet\10-ThuTucCapDien\251013-SCT-3000-trien khai quy trinh mua ban điện sinh hoat cua Cty Dien luc DN.pdf</v>
+        <v>https://thuctd.github.io\NiemYet\01-Bo-Nganh-Luat\Thông tư số 60-2025-TT-BCT ngày 0212-2025 Giá Bán Điện.pdf</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F2" s="22">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="11" t="str">
         <f>"https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data="&amp;G1</f>
-        <v>https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data=https://thuctd.github.io\NiemYet\10-ThuTucCapDien\251013-SCT-3000-trien khai quy trinh mua ban điện sinh hoat cua Cty Dien luc DN.pdf</v>
+        <v>https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data=https://thuctd.github.io\NiemYet\01-Bo-Nganh-Luat\Thông tư số 60-2025-TT-BCT ngày 0212-2025 Giá Bán Điện.pdf</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2148,7 +2167,7 @@
     <row r="7" spans="2:7" ht="176.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="str">
         <f>UPPER(VLOOKUP(F2,QR!A:D,4,0))</f>
-        <v>TRIỂN KHAI QUY TRÌNH, THỦ TỤC CẤP ĐIỆN CHO KHÁCH HÀNG MUA ĐIỆN MỤC ĐÍCH SINH HOẠT</v>
+        <v>THÔNG TƯ SỐ 60/2025/TT-BCT NGÀY 02/12/2025 BỘ CÔNG THƯƠNG QUY ĐỊNH VỀ THỰC HIỆN GIÁ BÁN ĐIỆN.</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="204" customHeight="1" x14ac:dyDescent="0.25">

--- a/NiemYet/BangThongTin.xlsx
+++ b/NiemYet/BangThongTin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\thuctd.github.io\NiemYet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CCF523-2AEA-4A5C-8BF3-8D8522475612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3A0F41-53CE-4320-BCC5-06B288080301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -400,6 +400,13 @@
   </si>
   <si>
     <t>Thông tư số 60/2025/TT-BCT ngày 02/12/2025 Bộ Công Thương Quy định về thực hiện giá bán điện.</t>
+  </si>
+  <si>
+    <t>https://thuctd.github.io\NiemYet\01-Bo-Nganh-Luat\260109-VB 133 SVHTTDL - hướng dẫn cơ sở lưu trú du lịch.pdf</t>
+  </si>
+  <si>
+    <t>HƯỚNG DẪN giấy tờ xác định cơ sở lưu trú du lịch 
+(Theo VB 133/SVHTTDL-DL ngày 09/01/2026)</t>
   </si>
 </sst>
 </file>
@@ -1058,12 +1065,13 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="3" width="7.3984375" customWidth="1"/>
     <col min="4" max="4" width="63.19921875" style="5" customWidth="1"/>
     <col min="5" max="5" width="64" style="21" customWidth="1"/>
     <col min="6" max="6" width="37.59765625" style="6" customWidth="1"/>
@@ -1726,6 +1734,18 @@
       <c r="A34" s="2">
         <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
         <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2026</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2099,6 +2119,7 @@
     <hyperlink ref="F31" r:id="rId10" xr:uid="{13F6D579-EDEA-4807-AA3D-3395CE5B67DB}"/>
     <hyperlink ref="E32" r:id="rId11" xr:uid="{332FF64F-AA28-4825-ABD6-FF16A79B1A31}"/>
     <hyperlink ref="E33" r:id="rId12" xr:uid="{10EBA9A8-AA5A-4AAF-AA0D-D73061618A1E}"/>
+    <hyperlink ref="E34" r:id="rId13" xr:uid="{7A427726-3B26-4B9A-8E9D-1BA7A831E6A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2111,8 +2132,8 @@
   </sheetPr>
   <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2132,16 +2153,16 @@
       </c>
       <c r="G1" t="str">
         <f>VLOOKUP(F2,QR!A:F,5,0)</f>
-        <v>https://thuctd.github.io\NiemYet\01-Bo-Nganh-Luat\Thông tư số 60-2025-TT-BCT ngày 0212-2025 Giá Bán Điện.pdf</v>
+        <v>https://thuctd.github.io\NiemYet\01-Bo-Nganh-Luat\260109-VB 133 SVHTTDL - hướng dẫn cơ sở lưu trú du lịch.pdf</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F2" s="22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="11" t="str">
         <f>"https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data="&amp;G1</f>
-        <v>https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data=https://thuctd.github.io\NiemYet\01-Bo-Nganh-Luat\Thông tư số 60-2025-TT-BCT ngày 0212-2025 Giá Bán Điện.pdf</v>
+        <v>https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data=https://thuctd.github.io\NiemYet\01-Bo-Nganh-Luat\260109-VB 133 SVHTTDL - hướng dẫn cơ sở lưu trú du lịch.pdf</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2167,7 +2188,8 @@
     <row r="7" spans="2:7" ht="176.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="str">
         <f>UPPER(VLOOKUP(F2,QR!A:D,4,0))</f>
-        <v>THÔNG TƯ SỐ 60/2025/TT-BCT NGÀY 02/12/2025 BỘ CÔNG THƯƠNG QUY ĐỊNH VỀ THỰC HIỆN GIÁ BÁN ĐIỆN.</v>
+        <v>HƯỚNG DẪN GIẤY TỜ XÁC ĐỊNH CƠ SỞ LƯU TRÚ DU LỊCH 
+(THEO VB 133/SVHTTDL-DL NGÀY 09/01/2026)</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="204" customHeight="1" x14ac:dyDescent="0.25">

--- a/NiemYet/BangThongTin.xlsx
+++ b/NiemYet/BangThongTin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\thuctd.github.io\NiemYet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3A0F41-53CE-4320-BCC5-06B288080301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560EA28E-1332-49B9-82E0-A50BBE3744CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="4" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>ID</t>
   </si>
@@ -407,6 +407,12 @@
   <si>
     <t>HƯỚNG DẪN giấy tờ xác định cơ sở lưu trú du lịch 
 (Theo VB 133/SVHTTDL-DL ngày 09/01/2026)</t>
+  </si>
+  <si>
+    <t>https://thuctd.github.io\NiemYet\01-Bo-Nganh-Luat\260112-89- NSMO - Huong dan thao tac dang ki tham gia co che DPPA web DVTT.pdf</t>
+  </si>
+  <si>
+    <t>Hướng dẫn đăng kí để tham gia cơ chế DPPA trên cổng thông tin dịch vụ trực tuyến NSMO</t>
   </si>
 </sst>
 </file>
@@ -1064,9 +1070,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0932BB-2243-4135-B59E-E019F997D3A6}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1752,6 +1758,18 @@
       <c r="A35" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2026</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2120,6 +2138,7 @@
     <hyperlink ref="E32" r:id="rId11" xr:uid="{332FF64F-AA28-4825-ABD6-FF16A79B1A31}"/>
     <hyperlink ref="E33" r:id="rId12" xr:uid="{10EBA9A8-AA5A-4AAF-AA0D-D73061618A1E}"/>
     <hyperlink ref="E34" r:id="rId13" xr:uid="{7A427726-3B26-4B9A-8E9D-1BA7A831E6A6}"/>
+    <hyperlink ref="E35" r:id="rId14" xr:uid="{5EC76AC2-8CF2-40AA-BCD8-F4DD2CC4639C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2132,8 +2151,8 @@
   </sheetPr>
   <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2153,16 +2172,16 @@
       </c>
       <c r="G1" t="str">
         <f>VLOOKUP(F2,QR!A:F,5,0)</f>
-        <v>https://thuctd.github.io\NiemYet\01-Bo-Nganh-Luat\260109-VB 133 SVHTTDL - hướng dẫn cơ sở lưu trú du lịch.pdf</v>
+        <v>https://thuctd.github.io\NiemYet\01-Bo-Nganh-Luat\260112-89- NSMO - Huong dan thao tac dang ki tham gia co che DPPA web DVTT.pdf</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F2" s="22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="11" t="str">
         <f>"https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data="&amp;G1</f>
-        <v>https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data=https://thuctd.github.io\NiemYet\01-Bo-Nganh-Luat\260109-VB 133 SVHTTDL - hướng dẫn cơ sở lưu trú du lịch.pdf</v>
+        <v>https://api.qrserver.com/v1/create-qr-code/?size=500x500&amp;data=https://thuctd.github.io\NiemYet\01-Bo-Nganh-Luat\260112-89- NSMO - Huong dan thao tac dang ki tham gia co che DPPA web DVTT.pdf</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2188,8 +2207,7 @@
     <row r="7" spans="2:7" ht="176.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="str">
         <f>UPPER(VLOOKUP(F2,QR!A:D,4,0))</f>
-        <v>HƯỚNG DẪN GIẤY TỜ XÁC ĐỊNH CƠ SỞ LƯU TRÚ DU LỊCH 
-(THEO VB 133/SVHTTDL-DL NGÀY 09/01/2026)</v>
+        <v>HƯỚNG DẪN ĐĂNG KÍ ĐỂ THAM GIA CƠ CHẾ DPPA TRÊN CỔNG THÔNG TIN DỊCH VỤ TRỰC TUYẾN NSMO</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="204" customHeight="1" x14ac:dyDescent="0.25">
@@ -2207,9 +2225,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="19">
-        <v>1</v>
-      </c>
+      <c r="C10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
